--- a/data/inter_iit_data/clean_data_bangalore dispatch address.xlsx
+++ b/data/inter_iit_data/clean_data_bangalore dispatch address.xlsx
@@ -4477,15 +4477,11 @@
           <t>11-02-2023</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>12.97500077977864</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>77.60632369350577</t>
-        </is>
+      <c r="G119" t="n">
+        <v>12.97500077977864</v>
+      </c>
+      <c r="H119" t="n">
+        <v>77.60632369350577</v>
       </c>
     </row>
     <row r="120">
@@ -5433,15 +5429,11 @@
           <t>09-02-2023</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>12.97537889967663</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>77.6027175</t>
-        </is>
+      <c r="G147" t="n">
+        <v>12.97537889967663</v>
+      </c>
+      <c r="H147" t="n">
+        <v>77.6027175</v>
       </c>
     </row>
     <row r="148">
@@ -5914,10 +5906,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>13.0044673</v>
+        <v>13.0044944</v>
       </c>
       <c r="H161" t="n">
-        <v>77.71483099999999</v>
+        <v>77.71258709999999</v>
       </c>
     </row>
     <row r="162">
@@ -7715,15 +7707,11 @@
           <t>8-02-2023</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>12.956336199674627</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>77.63248419999998</t>
-        </is>
+      <c r="G214" t="n">
+        <v>12.95633619967463</v>
+      </c>
+      <c r="H214" t="n">
+        <v>77.63248419999998</v>
       </c>
     </row>
     <row r="215">

--- a/data/inter_iit_data/clean_data_bangalore dispatch address.xlsx
+++ b/data/inter_iit_data/clean_data_bangalore dispatch address.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>12.90910995</v>
+        <v>12.9115788</v>
       </c>
       <c r="H5" t="n">
-        <v>77.58575619999999</v>
+        <v>77.58571329999999</v>
       </c>
     </row>
     <row r="6">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>12.9060929</v>
+        <v>12.9063958</v>
       </c>
       <c r="H8" t="n">
-        <v>77.5868964</v>
+        <v>77.5886106</v>
       </c>
     </row>
     <row r="9">
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>12.87839355</v>
+        <v>12.8897963</v>
       </c>
       <c r="H11" t="n">
-        <v>77.60469019999999</v>
+        <v>77.58558289999999</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>12.9070112</v>
+        <v>12.9506526</v>
       </c>
       <c r="H12" t="n">
-        <v>77.5983614</v>
+        <v>77.6392151</v>
       </c>
     </row>
     <row r="13">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>12.8993879</v>
+        <v>12.901773</v>
       </c>
       <c r="H13" t="n">
-        <v>77.59461499999999</v>
+        <v>77.594978</v>
       </c>
     </row>
     <row r="14">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>12.8969453</v>
+        <v>12.9088826</v>
       </c>
       <c r="H14" t="n">
-        <v>77.5859414</v>
+        <v>77.5857567</v>
       </c>
     </row>
     <row r="15">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>12.9070414</v>
+        <v>12.916563</v>
       </c>
       <c r="H15" t="n">
-        <v>77.6001406</v>
+        <v>77.583568</v>
       </c>
     </row>
     <row r="16">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>12.9196403</v>
+        <v>12.8978624</v>
       </c>
       <c r="H20" t="n">
-        <v>77.58856515000001</v>
+        <v>77.58450839999999</v>
       </c>
     </row>
     <row r="21">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12.8971895</v>
+        <v>12.8982804</v>
       </c>
       <c r="H21" t="n">
-        <v>77.58890845000001</v>
+        <v>77.5858544</v>
       </c>
     </row>
     <row r="22">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12.8969453</v>
+        <v>12.9088826</v>
       </c>
       <c r="H22" t="n">
-        <v>77.5859414</v>
+        <v>77.5857567</v>
       </c>
     </row>
     <row r="23">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>12.9007577</v>
+        <v>12.9052573</v>
       </c>
       <c r="H27" t="n">
-        <v>77.59495250000001</v>
+        <v>77.5841502</v>
       </c>
     </row>
     <row r="28">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>12.8878417</v>
+        <v>12.8838109</v>
       </c>
       <c r="H28" t="n">
-        <v>77.58174409999999</v>
+        <v>77.58295010000001</v>
       </c>
     </row>
     <row r="29">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>12.9031856</v>
+        <v>12.9037401</v>
       </c>
       <c r="H29" t="n">
-        <v>77.58649795000001</v>
+        <v>77.58704179999999</v>
       </c>
     </row>
     <row r="30">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>12.90619465</v>
+        <v>12.906285</v>
       </c>
       <c r="H30" t="n">
-        <v>77.5890462</v>
+        <v>77.5874455</v>
       </c>
     </row>
     <row r="31">
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>12.89781115</v>
+        <v>12.9059478</v>
       </c>
       <c r="H33" t="n">
-        <v>77.58275734999998</v>
+        <v>77.60589229999999</v>
       </c>
     </row>
     <row r="34">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>12.8905015</v>
+        <v>12.8890015</v>
       </c>
       <c r="H34" t="n">
-        <v>77.57615800000001</v>
+        <v>77.573385</v>
       </c>
     </row>
     <row r="35">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>12.8915085</v>
+        <v>12.8917914</v>
       </c>
       <c r="H35" t="n">
-        <v>77.57780959999999</v>
+        <v>77.577754</v>
       </c>
     </row>
     <row r="36">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>12.9061009</v>
+        <v>12.9066284</v>
       </c>
       <c r="H36" t="n">
-        <v>77.5924974</v>
+        <v>77.5930025</v>
       </c>
     </row>
     <row r="37">
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.90778485</v>
+        <v>12.9123174</v>
       </c>
       <c r="H37" t="n">
-        <v>77.58713134999999</v>
+        <v>77.58784109999999</v>
       </c>
     </row>
     <row r="38">
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>12.8896982</v>
+        <v>12.9003937</v>
       </c>
       <c r="H38" t="n">
-        <v>77.57807485000001</v>
+        <v>77.5858415</v>
       </c>
     </row>
     <row r="39">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>12.9080257</v>
+        <v>12.9003937</v>
       </c>
       <c r="H39" t="n">
-        <v>77.59262870000001</v>
+        <v>77.5858415</v>
       </c>
     </row>
     <row r="40">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>12.9080257</v>
+        <v>12.9156577</v>
       </c>
       <c r="H40" t="n">
-        <v>77.59262870000001</v>
+        <v>77.5994159</v>
       </c>
     </row>
     <row r="41">
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>12.9080257</v>
+        <v>12.9156577</v>
       </c>
       <c r="H42" t="n">
-        <v>77.59262870000001</v>
+        <v>77.5994159</v>
       </c>
     </row>
     <row r="43">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>12.9101813</v>
+        <v>12.9113897</v>
       </c>
       <c r="H43" t="n">
-        <v>77.58654495</v>
+        <v>77.584992</v>
       </c>
     </row>
     <row r="44">
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>12.9005855</v>
+        <v>12.8934943</v>
       </c>
       <c r="H44" t="n">
-        <v>77.5858447</v>
+        <v>77.5862456</v>
       </c>
     </row>
     <row r="45">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>12.8890974</v>
+        <v>12.8902416</v>
       </c>
       <c r="H45" t="n">
-        <v>77.58009629999999</v>
+        <v>77.58212879999999</v>
       </c>
     </row>
     <row r="46">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>12.9146517</v>
+        <v>12.9158698</v>
       </c>
       <c r="H46" t="n">
-        <v>77.5858169</v>
+        <v>77.58600819999999</v>
       </c>
     </row>
     <row r="47">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>12.90407435</v>
+        <v>12.9032116</v>
       </c>
       <c r="H47" t="n">
-        <v>77.58579675000001</v>
+        <v>77.5877971</v>
       </c>
     </row>
     <row r="48">
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>12.9113334</v>
+        <v>12.9156577</v>
       </c>
       <c r="H48" t="n">
-        <v>77.59254695</v>
+        <v>77.5994159</v>
       </c>
     </row>
     <row r="49">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12.9460249</v>
+        <v>12.8872242</v>
       </c>
       <c r="H52" t="n">
-        <v>77.60499824999999</v>
+        <v>77.58182599999999</v>
       </c>
     </row>
     <row r="53">
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12.8938441</v>
+        <v>12.8921504</v>
       </c>
       <c r="H53" t="n">
-        <v>77.63087969999999</v>
+        <v>77.6282442</v>
       </c>
     </row>
     <row r="54">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>12.92154</v>
+        <v>12.9481544</v>
       </c>
       <c r="H54" t="n">
-        <v>77.6277338</v>
+        <v>77.5971734</v>
       </c>
     </row>
     <row r="55">
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>12.9146014</v>
+        <v>12.961331</v>
       </c>
       <c r="H55" t="n">
-        <v>77.6448085</v>
+        <v>77.57007399999999</v>
       </c>
     </row>
     <row r="56">
@@ -2339,7 +2339,7 @@
         <v>12.9194511</v>
       </c>
       <c r="H56" t="n">
-        <v>77.64874429999999</v>
+        <v>77.6487443</v>
       </c>
     </row>
     <row r="57">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>12.9161365</v>
+        <v>12.910037</v>
       </c>
       <c r="H57" t="n">
-        <v>77.65169739999999</v>
+        <v>77.6516807</v>
       </c>
     </row>
     <row r="58">
@@ -2438,10 +2438,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12.90342255</v>
+        <v>12.9069779</v>
       </c>
       <c r="H59" t="n">
-        <v>77.64762434999999</v>
+        <v>77.6634925</v>
       </c>
     </row>
     <row r="60">
@@ -2480,24 +2480,24 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27th Main, Near NIFT, Sector-1, HSR, Bangalore</t>
+          <t>2318, 27th Main Road, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40837739535</v>
+        <v>42498449819</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Margie Galvan</t>
+          <t>Kenneth Baker</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SKU_76</t>
+          <t>SKU_82</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2506,32 +2506,32 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>12.911455</v>
+        <v>12.9121594</v>
       </c>
       <c r="H61" t="n">
-        <v>77.65208865</v>
+        <v>77.6516733</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2318, 27th Main Road, 1st Sector, HSR, Bangalore</t>
+          <t>569/4, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>42498449819</v>
+        <v>14699928469</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kenneth Baker</t>
+          <t>Lucille Keirstead</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SKU_82</t>
+          <t>SKU_123</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2540,406 +2540,406 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>12.9121594</v>
+        <v>12.9257303</v>
       </c>
       <c r="H62" t="n">
-        <v>77.6516733</v>
+        <v>77.66516489999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>569/4, Sector 1, HSR, Bangalore</t>
+          <t>1554, Ground Floor, 19th Main, Sector - 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14699928469</v>
+        <v>54163870135</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lucille Keirstead</t>
+          <t>Tara Allen</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SKU_123</t>
+          <t>SKU_47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>12.911455</v>
+        <v>12.961331</v>
       </c>
       <c r="H63" t="n">
-        <v>77.65189645000001</v>
+        <v>77.57007399999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1554, Ground Floor, 19th Main, Sector - 1, HSR, Bangalore</t>
+          <t>2733, 16th Cross, 27th Main, Opposite NIFT, Sector 1, HSR Layout, Bangalore, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>54163870135</v>
+        <v>98967476662</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tara Allen</t>
+          <t>Marshall Quinton</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SKU_47</t>
+          <t>SKU_142</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>12.9146014</v>
+        <v>12.912702</v>
       </c>
       <c r="H64" t="n">
-        <v>77.64821085000001</v>
+        <v>77.652479</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2733, 16th Cross, 27th Main, Opposite NIFT, Sector 1, HSR Layout, Bangalore, HSR, Bangalore</t>
+          <t>543, 7th Cross, 24th Main, Opposite Nous Info Systems, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>98967476662</v>
+        <v>94332983235</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Marshall Quinton</t>
+          <t>Gustavo Bailey</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SKU_142</t>
+          <t>SKU_117</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12.912702</v>
+        <v>12.9196367</v>
       </c>
       <c r="H65" t="n">
-        <v>77.652479</v>
+        <v>77.64947529999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>543, 7th Cross, 24th Main, Opposite Nous Info Systems, Sector 1, HSR, Bangalore</t>
+          <t>13th Cross, 24th Main, Opposite Assetz Apartment, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>94332983235</v>
+        <v>21104565365</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Gustavo Bailey</t>
+          <t>Kathleen Cantrell</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SKU_117</t>
+          <t>SKU_76</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>12.9196367</v>
+        <v>12.91615</v>
       </c>
       <c r="H66" t="n">
-        <v>77.64947529999999</v>
+        <v>77.6488823</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>13th Cross, 24th Main, Opposite Assetz Apartment, 1st Sector, HSR, Bangalore</t>
+          <t>7th Cross Road, Agara Village, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>21104565365</v>
+        <v>78472305957</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kathleen Cantrell</t>
+          <t>Donald Allen</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SKU_76</t>
+          <t>SKU_139</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>12.91615</v>
+        <v>12.9194418</v>
       </c>
       <c r="H67" t="n">
-        <v>77.6488823</v>
+        <v>77.647291</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7th Cross Road, Agara Village, 1st Sector, HSR, Bangalore</t>
+          <t>680-669, 13th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>78472305957</v>
+        <v>11910424508</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Donald Allen</t>
+          <t>Nanette Mcbride</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SKU_139</t>
+          <t>SKU_89</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>12.9194418</v>
+        <v>12.9159261</v>
       </c>
       <c r="H68" t="n">
-        <v>77.647291</v>
+        <v>77.6497332</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>680-669, 13th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka</t>
+          <t>2724, 31st Main, 17th Cross, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>11910424508</v>
+        <v>89394948450</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nanette Mcbride</t>
+          <t>David Webber</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SKU_89</t>
+          <t>SKU_42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>12.9159261</v>
+        <v>12.9126877</v>
       </c>
       <c r="H69" t="n">
-        <v>77.6497332</v>
+        <v>77.65327689999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2724, 31st Main, 17th Cross, HSR, Bangalore</t>
+          <t>1543, 7th Cross, 19th Main, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>89394948450</v>
+        <v>87898682349</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>David Webber</t>
+          <t>Brian Isom</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SKU_42</t>
+          <t>SKU_81</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>12.9126877</v>
+        <v>12.9196402</v>
       </c>
       <c r="H70" t="n">
-        <v>77.65327689999999</v>
+        <v>77.64447919999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1543, 7th Cross, 19th Main, 1st Sector, HSR, Bangalore</t>
+          <t>1214, 17th Cross Road, Parangi Palaya, Sector 2, HSR Layout, Bangalore</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>87898682349</v>
+        <v>71466613736</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brian Isom</t>
+          <t>Ralph Martin</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SKU_81</t>
+          <t>SKU_59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>12.9196402</v>
+        <v>12.9121301</v>
       </c>
       <c r="H71" t="n">
-        <v>77.64447919999999</v>
+        <v>77.650205</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1214, 17th Cross Road, Parangi Palaya, Sector 2, HSR Layout, Bangalore</t>
+          <t>Basement 2064, Siri Iris Building, 24th Main, N.R.T.A Enclave, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>71466613736</v>
+        <v>58089927559</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ralph Martin</t>
+          <t>Dana Farley</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SKU_59</t>
+          <t>SKU_89</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12.9121301</v>
+        <v>12.9154599</v>
       </c>
       <c r="H72" t="n">
-        <v>77.650205</v>
+        <v>77.6491032</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Basement 2064, Siri Iris Building, 24th Main, N.R.T.A Enclave, HSR, Bangalore</t>
+          <t>809/A, 27th Main, 100 Feet Road, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>58089927559</v>
+        <v>85539430303</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dana Farley</t>
+          <t>Sherry Ludlam</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SKU_89</t>
+          <t>SKU_50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12.9154599</v>
+        <v>12.9104699</v>
       </c>
       <c r="H73" t="n">
-        <v>77.6491032</v>
+        <v>77.6139457</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>809/A, 27th Main, 100 Feet Road, 1st Sector, HSR, Bangalore</t>
+          <t>Building 2686, 31 Main, 13 Cross, Sector 1, Behind CPWD Quarters, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>85539430303</v>
+        <v>85984892588</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sherry Ludlam</t>
+          <t>Amber Smith</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SKU_50</t>
+          <t>SKU_147</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2948,100 +2948,100 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.93405115</v>
+        <v>12.9096504</v>
       </c>
       <c r="H74" t="n">
-        <v>77.64545445</v>
+        <v>77.65330279999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Building 2686, 31 Main, 13 Cross, Sector 1, Behind CPWD Quarters, HSR Layout, HSR, Bangalore</t>
+          <t>191, Ground Floor, 27th Main Road, Near CPWD Quarters, Beside Lawrance &amp; Mayo, Sector 2, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>85984892588</v>
+        <v>53402748741</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Amber Smith</t>
+          <t>Juanita Pahulu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SKU_147</t>
+          <t>SKU_53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>12.9096504</v>
+        <v>12.9119893</v>
       </c>
       <c r="H75" t="n">
-        <v>77.65330279999999</v>
+        <v>77.651832</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>191, Ground Floor, 27th Main Road, Near CPWD Quarters, Beside Lawrance &amp; Mayo, Sector 2, HSR, Bangalore</t>
+          <t>2633, 27th Main, 13th Cross, 1st Sector, Liss Arcade, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>53402748741</v>
+        <v>49002247401</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Juanita Pahulu</t>
+          <t>Mary Davis</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SKU_53</t>
+          <t>SKU_13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.9119893</v>
+        <v>12.9156333</v>
       </c>
       <c r="H76" t="n">
-        <v>77.651832</v>
+        <v>77.6516664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2633, 27th Main, 13th Cross, 1st Sector, Liss Arcade, HSR, Bangalore</t>
+          <t>1548, 19th Main, Outer Ring Road, Opposite BMTC Bus Depot, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>49002247401</v>
+        <v>29805721561</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mary Davis</t>
+          <t>Carma Haynie</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SKU_13</t>
+          <t>SKU_41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3050,207 +3050,207 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>12.9158833</v>
+        <v>12.9202927</v>
       </c>
       <c r="H77" t="n">
-        <v>77.6517474</v>
+        <v>77.6451278</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1548, 19th Main, Outer Ring Road, Opposite BMTC Bus Depot, HSR, Bangalore</t>
+          <t>2733, 16th Cross, 27th Main Road, Oppsite, NIFT College, 1st Sector, HSR Layout, Bangalore</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>29805721561</v>
+        <v>84618864102</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Carma Haynie</t>
+          <t>Daniel Miller</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SKU_41</t>
+          <t>SKU_119</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>12.9202927</v>
+        <v>12.912702</v>
       </c>
       <c r="H78" t="n">
-        <v>77.6451278</v>
+        <v>77.652479</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2733, 16th Cross, 27th Main Road, Oppsite, NIFT College, 1st Sector, HSR Layout, Bangalore</t>
+          <t>2610, 27th Main, Near NIFT, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>84618864102</v>
+        <v>50745703670</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Daniel Miller</t>
+          <t>Christopher Porter</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SKU_119</t>
+          <t>SKU_106</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>12.912702</v>
+        <v>12.9129272</v>
       </c>
       <c r="H79" t="n">
-        <v>77.652479</v>
+        <v>77.65164729999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2610, 27th Main, Near NIFT, HSR Layout, HSR, Bangalore</t>
+          <t>1, 328, 27th Main, 21st Cross, Sector 2, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>50745703670</v>
+        <v>89111417547</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Christopher Porter</t>
+          <t>Larry Herndon</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SKU_106</t>
+          <t>SKU_48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12.9129272</v>
+        <v>12.9042116</v>
       </c>
       <c r="H80" t="n">
-        <v>77.65164729999999</v>
+        <v>77.6507228</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1, 328, 27th Main, 21st Cross, Sector 2, HSR, Bangalore</t>
+          <t>49, Agara Circle, Near Hanuman Statue, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>89111417547</v>
+        <v>56766768595</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Larry Herndon</t>
+          <t>Elaine Watson</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SKU_48</t>
+          <t>SKU_19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>12.9065656</v>
+        <v>12.9236427</v>
       </c>
       <c r="H81" t="n">
-        <v>77.65129979999999</v>
+        <v>77.64972109999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>49, Agara Circle, Near Hanuman Statue, HSR Layout, HSR, Bangalore</t>
+          <t>Opposite NIFT College, 2733, 16th Cross, 27th Main Road, PWD Quarters, 1st Sector, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>56766768595</v>
+        <v>85469796479</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Elaine Watson</t>
+          <t>Theodore Bunch</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SKU_19</t>
+          <t>SKU_38</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>12.9240881</v>
+        <v>12.912702</v>
       </c>
       <c r="H82" t="n">
-        <v>77.6496264</v>
+        <v>77.652479</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Opposite NIFT College, 2733, 16th Cross, 27th Main Road, PWD Quarters, 1st Sector, HSR Layout, HSR, Bangalore</t>
+          <t>#2733, 16th Cross, 27th Main, Opppsite NIFT College, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>85469796479</v>
+        <v>31316164825</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Theodore Bunch</t>
+          <t>Joe Worley</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SKU_38</t>
+          <t>SKU_110</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3262,772 +3262,772 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>#2733, 16th Cross, 27th Main, Opppsite NIFT College, Sector 1, HSR, Bangalore</t>
+          <t>Next to Grigliato, Sector 1 , HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>31316164825</v>
+        <v>18227945733</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Joe Worley</t>
+          <t>Amber Johnson</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SKU_110</t>
+          <t>SKU_55</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>12.912702</v>
+        <v>12.9221548</v>
       </c>
       <c r="H84" t="n">
-        <v>77.652479</v>
+        <v>77.64537109999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Next to Grigliato, Sector 1 , HSR Layout, HSR, Bangalore</t>
+          <t>2606, Ground Floor, The Ambience Building, 16th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>18227945733</v>
+        <v>94402524628</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Amber Johnson</t>
+          <t>Howard Roman</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SKU_55</t>
+          <t>SKU_85</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>12.9183401</v>
+        <v>12.9125829</v>
       </c>
       <c r="H85" t="n">
-        <v>77.65439259999999</v>
+        <v>77.6514055</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2606, Ground Floor, The Ambience Building, 16th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
+          <t>2802, 27th Main Road, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>94402524628</v>
+        <v>46205581478</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Howard Roman</t>
+          <t>Benjamin Smith</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SKU_85</t>
+          <t>SKU_103</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>12.91300745</v>
+        <v>12.9232993</v>
       </c>
       <c r="H86" t="n">
-        <v>77.6516635</v>
+        <v>77.65142539999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2802, 27th Main Road, Sector 1, HSR, Bangalore</t>
+          <t>1562, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46205581478</v>
+        <v>22921695090</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Benjamin Smith</t>
+          <t>Charles Trembley</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SKU_103</t>
+          <t>SKU_2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>12.9232993</v>
+        <v>12.9175337</v>
       </c>
       <c r="H87" t="n">
-        <v>77.65142539999999</v>
+        <v>77.65045719999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1562, Sector 1, HSR, Bangalore</t>
+          <t>2738, 27th Main, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22921695090</v>
+        <v>91311238475</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Charles Trembley</t>
+          <t>Marissa Coram</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SKU_2</t>
+          <t>SKU_28</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>12.9117419</v>
+        <v>12.912786</v>
       </c>
       <c r="H88" t="n">
-        <v>77.64454494999998</v>
+        <v>77.65202960000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2738, 27th Main, Sector 1, HSR, Bangalore</t>
+          <t>646, 12th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>91311238475</v>
+        <v>89040589151</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Marissa Coram</t>
+          <t>Iva Bell</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SKU_28</t>
+          <t>SKU_20</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12.912786</v>
+        <v>12.9163356</v>
       </c>
       <c r="H89" t="n">
-        <v>77.65202960000001</v>
+        <v>77.6521815</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>646, 12th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
+          <t>647, Ground Floor, 27th Main Road, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>89040589151</v>
+        <v>96874607527</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Iva Bell</t>
+          <t>Frances Chai</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SKU_20</t>
+          <t>SKU_110</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.9163356</v>
+        <v>12.9119893</v>
       </c>
       <c r="H90" t="n">
-        <v>77.6521815</v>
+        <v>77.651832</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>647, Ground Floor, 27th Main Road, Sector 1, HSR, Bangalore</t>
+          <t>191, First Floor, 27th Main, Sector 2, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>96874607527</v>
+        <v>17354068059</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Frances Chai</t>
+          <t>Clarence Fuller</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SKU_110</t>
+          <t>SKU_69</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12.9166635</v>
+        <v>12.9079765</v>
       </c>
       <c r="H91" t="n">
-        <v>77.65122074999999</v>
+        <v>77.65172370000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>191, First Floor, 27th Main, Sector 2, HSR, Bangalore</t>
+          <t>2317, 27th Main, Sector 1, Opposite NIFT College, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>17354068059</v>
+        <v>76687493477</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Clarence Fuller</t>
+          <t>Marvin Buck</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SKU_69</t>
+          <t>SKU_73</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>12.9114422</v>
+        <v>12.9124495</v>
       </c>
       <c r="H92" t="n">
-        <v>77.6436266</v>
+        <v>77.65167629999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2317, 27th Main, Sector 1, Opposite NIFT College, HSR Layout, HSR, Bangalore</t>
+          <t>2628, 27th Main Road, 1st Sector, HSR Layout, Bangalore, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>76687493477</v>
+        <v>50915970151</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Marvin Buck</t>
+          <t>Milton Wilson</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SKU_73</t>
+          <t>SKU_77</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>12.9124495</v>
+        <v>12.915173</v>
       </c>
       <c r="H93" t="n">
-        <v>77.65167629999999</v>
+        <v>77.65158799999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2628, 27th Main Road, 1st Sector, HSR Layout, Bangalore, HSR, Bangalore</t>
+          <t>1554, Ground Floor, 19th Main, Sector - 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>50915970151</v>
+        <v>19365687734</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Milton Wilson</t>
+          <t>Angela Hindman</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SKU_77</t>
+          <t>SKU_34</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>12.915173</v>
+        <v>12.961331</v>
       </c>
       <c r="H94" t="n">
-        <v>77.65158799999999</v>
+        <v>77.57007399999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1554, Ground Floor, 19th Main, Sector - 1, HSR, Bangalore</t>
+          <t>780, 12th Cross, 19th Main, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>19365687734</v>
+        <v>20687322207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Angela Hindman</t>
+          <t>Carol Upchurch</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SKU_34</t>
+          <t>SKU_10</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>12.9146014</v>
+        <v>12.9163752</v>
       </c>
       <c r="H95" t="n">
-        <v>77.64821085000001</v>
+        <v>77.6497418</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>780, 12th Cross, 19th Main, HSR, Bangalore</t>
+          <t>2606, The Ambience, 27th Main Road, 16th cross, HSR Layout</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>20687322207</v>
+        <v>47082143365</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Carol Upchurch</t>
+          <t>Peggy Hwang</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SKU_10</t>
+          <t>SKU_64</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>12.9088484</v>
+        <v>12.9125829</v>
       </c>
       <c r="H96" t="n">
-        <v>77.6469225</v>
+        <v>77.6514055</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2606, The Ambience, 27th Main Road, 16th cross, HSR Layout</t>
+          <t>331, Ground Floor, 27th Main, 2nd Stage, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>47082143365</v>
+        <v>81727476606</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Peggy Hwang</t>
+          <t>William Sherman</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SKU_64</t>
+          <t>SKU_146</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>12.9118354</v>
+        <v>12.9119893</v>
       </c>
       <c r="H97" t="n">
-        <v>77.64116285</v>
+        <v>77.651832</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>331, Ground Floor, 27th Main, 2nd Stage, HSR, Bangalore</t>
+          <t>1548, 3rd Floor,19th Main Road, Sector 1, Agara Village, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>81727476606</v>
+        <v>28764133976</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>William Sherman</t>
+          <t>Shana Davis</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SKU_146</t>
+          <t>SKU_123</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12.9117628</v>
+        <v>12.9189625</v>
       </c>
       <c r="H98" t="n">
-        <v>77.64464529999999</v>
+        <v>77.6449137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1548, 3rd Floor,19th Main Road, Sector 1, Agara Village, HSR, Bangalore</t>
+          <t>Shop 339, 27th Main Road, HSR Layout Sector 2, Bangalore</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>28764133976</v>
+        <v>66471762239</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Shana Davis</t>
+          <t>Jesus Rodriguez</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SKU_123</t>
+          <t>SKU_106</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>12.9202826</v>
+        <v>12.9078089</v>
       </c>
       <c r="H99" t="n">
-        <v>77.64518120000001</v>
+        <v>77.651859</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Shop 339, 27th Main Road, HSR Layout Sector 2, Bangalore</t>
+          <t>2610, 27th Main, Near NIFT, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>66471762239</v>
+        <v>28074155949</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jesus Rodriguez</t>
+          <t>Thelma Howells</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SKU_106</t>
+          <t>SKU_83</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.9078089</v>
+        <v>12.9129272</v>
       </c>
       <c r="H100" t="n">
-        <v>77.651859</v>
+        <v>77.65164729999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2610, 27th Main, Near NIFT, HSR Layout, HSR, Bangalore</t>
+          <t>1558, 19th Main, Ring Road, Near Indian Oil Petrol Bunk, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>28074155949</v>
+        <v>39213602287</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Thelma Howells</t>
+          <t>Raymond Huffman</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SKU_83</t>
+          <t>SKU_50</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12.9129272</v>
+        <v>12.92178</v>
       </c>
       <c r="H101" t="n">
-        <v>77.65164729999999</v>
+        <v>77.64519439999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1558, 19th Main, Ring Road, Near Indian Oil Petrol Bunk, Sector 1, HSR, Bangalore</t>
+          <t>712, 6th Cross, 5th Main, Off 80 Feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>39213602287</v>
+        <v>21225161006</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Raymond Huffman</t>
+          <t>Joanna Evetts</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SKU_50</t>
+          <t>SKU_9</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>12.9215736</v>
+        <v>12.9758079</v>
       </c>
       <c r="H102" t="n">
-        <v>77.64500575000001</v>
+        <v>77.6467327</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>712, 6th Cross, 5th Main, Off 80 Feet Road, Indiranagar, Bangalore</t>
+          <t>14, 2nd Floor, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21225161006</v>
+        <v>15239382796</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Joanna Evetts</t>
+          <t>Virginia Cole</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SKU_9</t>
+          <t>SKU_27</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>12.98631945</v>
+        <v>12.9520783</v>
       </c>
       <c r="H103" t="n">
-        <v>77.60723295000001</v>
+        <v>77.6927055</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>14, 2nd Floor, Church Street, Bangalore</t>
+          <t>First Floor, 14, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15239382796</v>
+        <v>99015056791</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Virginia Cole</t>
+          <t>Normand Ashford</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SKU_27</t>
+          <t>SKU_113</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12.9662983</v>
+        <v>12.9752302</v>
       </c>
       <c r="H104" t="n">
-        <v>77.59856149999999</v>
+        <v>77.60346220000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>First Floor, 14, Church Street, Bangalore</t>
+          <t>36, Off MG Road, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>99015056791</v>
+        <v>44759282449</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normand Ashford</t>
+          <t>Robert Olsen</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SKU_113</t>
+          <t>SKU_83</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>12.9752302</v>
+        <v>12.9739924</v>
       </c>
       <c r="H105" t="n">
-        <v>77.60346220000001</v>
+        <v>77.6124456</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>36, Off MG Road, Church Street, Bangalore</t>
+          <t>42, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>44759282449</v>
+        <v>52059909281</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Robert Olsen</t>
+          <t>Joyce Brothers</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SKU_83</t>
+          <t>SKU_107</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4036,100 +4036,100 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>12.9753943</v>
+        <v>12.9757954</v>
       </c>
       <c r="H106" t="n">
-        <v>77.60280720000002</v>
+        <v>77.6019081</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>42, Church Street, Bangalore</t>
+          <t>33, High Gates Hotel, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>52059909281</v>
+        <v>76893410434</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Joyce Brothers</t>
+          <t>George Garrett</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SKU_107</t>
+          <t>SKU_10</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>12.9757954</v>
+        <v>12.975079</v>
       </c>
       <c r="H107" t="n">
-        <v>77.6019081</v>
+        <v>77.603155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>33, High Gates Hotel, Church Street, Bangalore</t>
+          <t>2, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>76893410434</v>
+        <v>84366653069</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>George Garrett</t>
+          <t>Phyllis Ehlers</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SKU_10</t>
+          <t>SKU_116</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>12.975079</v>
+        <v>12.9746635</v>
       </c>
       <c r="H108" t="n">
-        <v>77.603155</v>
+        <v>77.60765219999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2, Church Street, Bangalore</t>
+          <t>46, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>84366653069</v>
+        <v>41965274833</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Phyllis Ehlers</t>
+          <t>Ralph Evans</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SKU_116</t>
+          <t>SKU_88</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4138,100 +4138,100 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>12.9746635</v>
+        <v>12.9757082</v>
       </c>
       <c r="H109" t="n">
-        <v>77.60765219999999</v>
+        <v>77.6023934</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>46, Church Street, Bangalore</t>
+          <t>9/3, Prestige Pearl House, Museum Road, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>41965274833</v>
+        <v>40661403008</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ralph Evans</t>
+          <t>Shawn Reeves</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SKU_88</t>
+          <t>SKU_23</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>12.9757082</v>
+        <v>12.9735121</v>
       </c>
       <c r="H110" t="n">
-        <v>77.6023934</v>
+        <v>77.60334499999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>9/3, Prestige Pearl House, Museum Road, Church Street, Bangalore</t>
+          <t>1A, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>40661403008</v>
+        <v>59997033261</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Shawn Reeves</t>
+          <t>Lelia Wooten</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SKU_23</t>
+          <t>SKU_114</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>12.9735121</v>
+        <v>12.9740428</v>
       </c>
       <c r="H111" t="n">
-        <v>77.60334499999999</v>
+        <v>77.60713749999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1A, Church Street, Bangalore</t>
+          <t>G-005, City Centre, 28/4, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>59997033261</v>
+        <v>83381832974</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Lelia Wooten</t>
+          <t>Christopher Watters</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SKU_114</t>
+          <t>SKU_106</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4240,542 +4240,542 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>12.9740428</v>
+        <v>12.9756472</v>
       </c>
       <c r="H112" t="n">
-        <v>77.60713749999999</v>
+        <v>77.60225369999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>G-005, City Centre, 28/4, Church Street, Bangalore</t>
+          <t>22, Amoeba Complex, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>83381832974</v>
+        <v>98170732794</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Christopher Watters</t>
+          <t>Twyla Nichols</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SKU_106</t>
+          <t>SKU_1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>12.9539974</v>
+        <v>12.9746781</v>
       </c>
       <c r="H113" t="n">
-        <v>77.6309395</v>
+        <v>77.60490279999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>22, Amoeba Complex, Church Street, Bangalore</t>
+          <t>Church Street</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>98170732794</v>
+        <v>69379883919</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Twyla Nichols</t>
+          <t>Joe Lawson</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SKU_1</t>
+          <t>SKU_124</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>12.9746781</v>
+        <v>12.9743127</v>
       </c>
       <c r="H114" t="n">
-        <v>77.60490279999999</v>
+        <v>77.60771630000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Church Street</t>
+          <t>24, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>69379883919</v>
+        <v>70918939146</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Joe Lawson</t>
+          <t>Mary Reed</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SKU_124</t>
+          <t>SKU_127</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>12.9743127</v>
+        <v>12.974685</v>
       </c>
       <c r="H115" t="n">
-        <v>77.60771629999999</v>
+        <v>77.605791</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>24, Church Street, Bangalore</t>
+          <t>765, 1st Floor, 1st Main, Domlur Layout, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>70918939146</v>
+        <v>81721151401</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Mary Reed</t>
+          <t>Scott Peabody</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SKU_127</t>
+          <t>SKU_17</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12.974685</v>
+        <v>12.9599925</v>
       </c>
       <c r="H116" t="n">
-        <v>77.605791</v>
+        <v>77.6407538</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>765, 1st Floor, 1st Main, Domlur Layout, Domlur, Bangalore</t>
+          <t>8/ 9, 17th F Cross, 2nd Stage, Indiranagar, Bengaluru</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>81721151401</v>
+        <v>29925333677</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Scott Peabody</t>
+          <t>Terry Mitchell</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SKU_17</t>
+          <t>SKU_81</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>12.960308</v>
+        <v>12.9771437</v>
       </c>
       <c r="H117" t="n">
-        <v>77.6371659</v>
+        <v>77.63256419999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>8/ 9, 17th F Cross, 2nd Stage, Indiranagar, Bengaluru</t>
+          <t>Next to CMH Metro Station, CMH Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>29925333677</v>
+        <v>46767096463</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Terry Mitchell</t>
+          <t>Thomas Viviano</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SKU_81</t>
+          <t>SKU_146</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>12.9712751</v>
+        <v>12.9778862</v>
       </c>
       <c r="H118" t="n">
-        <v>77.64067249999999</v>
+        <v>77.64619789999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Next to CMH Metro Station, CMH Road, Indiranagar, Bangalore</t>
+          <t>Ground Floor, Sri Shiva Sai Complex, 13th Cross, 7th Main, 2nd Stage, HAL, Off Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>46767096463</v>
+        <v>92941598133</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Thomas Viviano</t>
+          <t>Joseph Boyd</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SKU_146</t>
+          <t>SKU_129</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>12.97500077977864</v>
+        <v>12.9786738</v>
       </c>
       <c r="H119" t="n">
-        <v>77.60632369350577</v>
+        <v>77.6362003</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ground Floor, Sri Shiva Sai Complex, 13th Cross, 7th Main, 2nd Stage, HAL, Off Double Road, Indiranagar, Bangalore</t>
+          <t>Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>92941598133</v>
+        <v>86841663173</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Joseph Boyd</t>
+          <t>George Douglas</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SKU_129</t>
+          <t>SKU_17</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>12.9713929</v>
+        <v>12.9609857</v>
       </c>
       <c r="H120" t="n">
-        <v>77.63504159999999</v>
+        <v>77.6387316</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Domlur, Bangalore</t>
+          <t>46, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>86841663173</v>
+        <v>24472334890</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>George Douglas</t>
+          <t>Marjorie Williamson</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SKU_17</t>
+          <t>SKU_91</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>12.96297955</v>
+        <v>12.9757082</v>
       </c>
       <c r="H121" t="n">
-        <v>77.63562040000001</v>
+        <v>77.6023934</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>46, Church Street, Bangalore</t>
+          <t>Shop 6, First Floor, Binnamangala First Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>24472334890</v>
+        <v>26105795180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Marjorie Williamson</t>
+          <t>Roger Bouldin</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SKU_91</t>
+          <t>SKU_18</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>12.9757082</v>
+        <v>12.9809038</v>
       </c>
       <c r="H122" t="n">
-        <v>77.6023934</v>
+        <v>77.6398129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Shop 6, First Floor, Binnamangala First Stage, Indiranagar, Bangalore</t>
+          <t>970, 12th Main, 5th Cross, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>26105795180</v>
+        <v>94667742985</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Roger Bouldin</t>
+          <t>Daniel Marrin</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SKU_18</t>
+          <t>SKU_113</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>12.97647355</v>
+        <v>12.969924</v>
       </c>
       <c r="H123" t="n">
-        <v>77.64082689999999</v>
+        <v>77.6388704</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>970, 12th Main, 5th Cross, Indiranagar, Bangalore</t>
+          <t>1088, 12th Main, HAL 2nd Stage, Off 100 Feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>94667742985</v>
+        <v>38434272738</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Daniel Marrin</t>
+          <t>Trudy Moore</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SKU_113</t>
+          <t>SKU_123</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>12.969924</v>
+        <v>12.9699142</v>
       </c>
       <c r="H124" t="n">
-        <v>77.6388704</v>
+        <v>77.6379417</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1088, 12th Main, HAL 2nd Stage, Off 100 Feet Road, Indiranagar, Bangalore</t>
+          <t>181, 3rd Floor, Amar Jyothi Layout, Inner Ring Road, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>38434272738</v>
+        <v>53198547414</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Trudy Moore</t>
+          <t>Kathleen Thompson</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SKU_123</t>
+          <t>SKU_110</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.97354555</v>
+        <v>12.9539498</v>
       </c>
       <c r="H125" t="n">
-        <v>77.64271644999999</v>
+        <v>77.64108899999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>181, 3rd Floor, Amar Jyothi Layout, Inner Ring Road, Domlur, Bangalore</t>
+          <t>544, First Floor, Near Indiranagar Metro Station, CMH Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>53198547414</v>
+        <v>38200322788</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kathleen Thompson</t>
+          <t>Michael Frasier</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SKU_110</t>
+          <t>SKU_45</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>12.9786531</v>
+        <v>12.9782619</v>
       </c>
       <c r="H126" t="n">
-        <v>77.64208699999999</v>
+        <v>77.63852570000002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>544, First Floor, Near Indiranagar Metro Station, CMH Road, Indiranagar, Bangalore</t>
+          <t>212/A, 1st Main Road, Stage 2, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>38200322788</v>
+        <v>47003637195</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Michael Frasier</t>
+          <t>Marshall Parham</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SKU_45</t>
+          <t>SKU_131</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>12.9780919</v>
+        <v>12.9653791</v>
       </c>
       <c r="H127" t="n">
-        <v>77.63785589999999</v>
+        <v>77.63803399999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>212/A, 1st Main Road, Stage 2, Indiranagar, Bangalore</t>
+          <t>598, 1st floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>47003637195</v>
+        <v>85725180680</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Marshall Parham</t>
+          <t>Stanley Davis</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SKU_131</t>
+          <t>SKU_72</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4784,1256 +4784,1256 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>12.8454687</v>
+        <v>12.9600892</v>
       </c>
       <c r="H128" t="n">
-        <v>77.66498009999999</v>
+        <v>77.63571109999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>598, 1st floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
+          <t>197/A, Double Road, 2nd Stage, Opposite HDFC Bank, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>85725180680</v>
+        <v>70899793952</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Stanley Davis</t>
+          <t>Gary Simmons</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SKU_72</t>
+          <t>SKU_121</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>12.9600892</v>
+        <v>12.9613059</v>
       </c>
       <c r="H129" t="n">
-        <v>77.63571109999999</v>
+        <v>77.6366221</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>197/A, Double Road, 2nd Stage, Opposite HDFC Bank, Indiranagar, Bangalore</t>
+          <t>G-005, City Centre, 28/4, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>70899793952</v>
+        <v>61422999142</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Gary Simmons</t>
+          <t>Aldo Edsall</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SKU_121</t>
+          <t>SKU_45</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>12.9748412</v>
+        <v>12.9756472</v>
       </c>
       <c r="H130" t="n">
-        <v>77.5994346</v>
+        <v>77.60225369999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>G-005, City Centre, 28/4, Church Street, Bangalore</t>
+          <t>4, 39/1, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>61422999142</v>
+        <v>55525210263</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Aldo Edsall</t>
+          <t>Mary Perez</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SKU_45</t>
+          <t>SKU_55</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>12.9539974</v>
+        <v>13.0139955</v>
       </c>
       <c r="H131" t="n">
-        <v>77.6309395</v>
+        <v>77.5089961</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4, 39/1, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
+          <t>212/A, 1st Main Road, Stage 2, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>55525210263</v>
+        <v>13337031353</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Mary Perez</t>
+          <t>Lawerence Lindsay</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SKU_55</t>
+          <t>SKU_75</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>12.97515995</v>
+        <v>12.9653791</v>
       </c>
       <c r="H132" t="n">
-        <v>77.63261195</v>
+        <v>77.63803399999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>212/A, 1st Main Road, Stage 2, Indiranagar, Bangalore</t>
+          <t>48, Triumph Towers, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>13337031353</v>
+        <v>73796529420</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Lawerence Lindsay</t>
+          <t>Jesse Suarez</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SKU_75</t>
+          <t>SKU_98</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>12.8454687</v>
+        <v>12.975507</v>
       </c>
       <c r="H133" t="n">
-        <v>77.66498009999999</v>
+        <v>77.60314799999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>48, Triumph Towers, Church Street, Bangalore</t>
+          <t>Srinivasan Towers, ESI Hospital Road, Off Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>73796529420</v>
+        <v>55217454663</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jesse Suarez</t>
+          <t>Joseph Jones</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SKU_98</t>
+          <t>SKU_142</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>12.97565035</v>
+        <v>12.9588109</v>
       </c>
       <c r="H134" t="n">
-        <v>77.60308845</v>
+        <v>77.5927009</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Srinivasan Towers, ESI Hospital Road, Off Double Road, Indiranagar, Bangalore</t>
+          <t>Number 4 St Mary's Building, 39/1, 2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>55217454663</v>
+        <v>38653109135</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Joseph Jones</t>
+          <t>Samuel Sampley</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SKU_142</t>
+          <t>SKU_148</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>12.9707442</v>
+        <v>12.9783692</v>
       </c>
       <c r="H135" t="n">
-        <v>77.636391</v>
+        <v>77.6408356</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Number 4 St Mary's Building, 39/1, 2nd Stage, Indiranagar, Bangalore</t>
+          <t>949, Ground Floor, HAL 2nd Stage, 12th Main, 100 feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>38653109135</v>
+        <v>77604849495</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Samuel Sampley</t>
+          <t>Patricia Johnston</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SKU_148</t>
+          <t>SKU_20</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>12.8509794</v>
+        <v>12.970274</v>
       </c>
       <c r="H136" t="n">
-        <v>77.6834296</v>
+        <v>77.64138699999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>949, Ground Floor, HAL 2nd Stage, 12th Main, 100 feet Road, Indiranagar, Bangalore</t>
+          <t>50/1, Haridevpur, Shantala Nagar, Ashok Nagar, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>77604849495</v>
+        <v>75568022308</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Patricia Johnston</t>
+          <t>Pam Trela</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SKU_20</t>
+          <t>SKU_90</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>12.9702745</v>
+        <v>12.9749903</v>
       </c>
       <c r="H137" t="n">
-        <v>77.6391824</v>
+        <v>77.6047836</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>50/1, Haridevpur, Shantala Nagar, Ashok Nagar, Church Street, Bangalore</t>
+          <t>1324, Double Road, 2nd Stage, Opposite Cauvery School, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>75568022308</v>
+        <v>81655937477</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Pam Trela</t>
+          <t>Jose Williams</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SKU_90</t>
+          <t>SKU_115</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>12.9750562</v>
+        <v>12.9750224</v>
       </c>
       <c r="H138" t="n">
-        <v>77.60461760000001</v>
+        <v>77.64493019999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1324, Double Road, 2nd Stage, Opposite Cauvery School, Indiranagar, Bangalore</t>
+          <t>1083, 12th main, 5th Cross, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>81655937477</v>
+        <v>20550226542</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Jose Williams</t>
+          <t>Doria Ferguson</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SKU_115</t>
+          <t>SKU_114</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>12.9760954</v>
+        <v>12.9699539</v>
       </c>
       <c r="H139" t="n">
-        <v>77.63672029999999</v>
+        <v>77.638717</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1083, 12th main, 5th Cross, Indiranagar, Bangalore</t>
+          <t>949, 12th Main, Ground Floor, Off 100 Feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>20550226542</v>
+        <v>62399381626</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Doria Ferguson</t>
+          <t>Harvey Tyner</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SKU_114</t>
+          <t>SKU_91</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>12.9699539</v>
+        <v>12.970274</v>
       </c>
       <c r="H140" t="n">
-        <v>77.638717</v>
+        <v>77.64138699999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>949, 12th Main, Ground Floor, Off 100 Feet Road, Indiranagar, Bangalore</t>
+          <t>2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>62399381626</v>
+        <v>91477551055</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Harvey Tyner</t>
+          <t>Thomas Lindquist</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SKU_91</t>
+          <t>SKU_52</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>12.9701997</v>
+        <v>12.9620069</v>
       </c>
       <c r="H141" t="n">
-        <v>77.6391119</v>
+        <v>77.63437669999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2nd Stage, Indiranagar, Bangalore</t>
+          <t>3217, 13th Cross, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>91477551055</v>
+        <v>66146763539</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Thomas Lindquist</t>
+          <t>Shirlee Tennant</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SKU_52</t>
+          <t>SKU_10</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>12.962059</v>
+        <v>12.9727187</v>
       </c>
       <c r="H142" t="n">
-        <v>77.63513924999999</v>
+        <v>77.63514049999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3217, 13th Cross, Indiranagar, Bangalore</t>
+          <t>12th Main, HAL 2nd Stage, ESI To Domlur, Service Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>66146763539</v>
+        <v>84612864961</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Shirlee Tennant</t>
+          <t>Shelia West</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SKU_10</t>
+          <t>SKU_80</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>12.9727187</v>
+        <v>12.9614154</v>
       </c>
       <c r="H143" t="n">
-        <v>77.63514049999999</v>
+        <v>77.63490969999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>12th Main, HAL 2nd Stage, ESI To Domlur, Service Road, Indiranagar, Bangalore</t>
+          <t>12th Main Road Junction, Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>84612864961</v>
+        <v>75506986031</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Shelia West</t>
+          <t>Anna Bundy</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SKU_80</t>
+          <t>SKU_86</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>12.96605175</v>
+        <v>12.9698507</v>
       </c>
       <c r="H144" t="n">
-        <v>77.63814884999999</v>
+        <v>77.6359686</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>12th Main Road Junction, Double Road, Indiranagar, Bangalore</t>
+          <t>4, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>75506986031</v>
+        <v>62280811516</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Anna Bundy</t>
+          <t>Gertrude Frazier</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SKU_86</t>
+          <t>SKU_70</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>12.9698507</v>
+        <v>12.9698565</v>
       </c>
       <c r="H145" t="n">
-        <v>77.6359686</v>
+        <v>77.7515638</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
+          <t>46/1, Cobalt Building, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>62280811516</v>
+        <v>81065467193</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Gertrude Frazier</t>
+          <t>Jeffrey Mekee</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SKU_70</t>
+          <t>SKU_69</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>12.9723269</v>
+        <v>12.9748809</v>
       </c>
       <c r="H146" t="n">
-        <v>77.6397374</v>
+        <v>77.6056454</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>46/1, Cobalt Building, Church Street, Bangalore</t>
+          <t>39/7, 5th Cross, 6th Main, Appareddy Palya, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>81065467193</v>
+        <v>79226518761</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Jeffrey Mekee</t>
+          <t>John Dennis</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SKU_69</t>
+          <t>SKU_6</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>12.97537889967663</v>
+        <v>13.0116344</v>
       </c>
       <c r="H147" t="n">
-        <v>77.6027175</v>
+        <v>77.6485005</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>39/7, 5th Cross, 6th Main, Appareddy Palya, Indiranagar, Bangalore</t>
+          <t>949, 12th Main Rd, Appareddipalya, Indiranagar, Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>79226518761</v>
+        <v>65665446450</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>John Dennis</t>
+          <t>Mary Walton</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SKU_6</t>
+          <t>SKU_61</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>12.9714145</v>
+        <v>12.9701997</v>
       </c>
       <c r="H148" t="n">
-        <v>77.64093680000001</v>
+        <v>77.6391119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>949, 12th Main Rd, Appareddipalya, Indiranagar, Bengaluru, Karnataka</t>
+          <t>598, 1st Floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>65665446450</v>
+        <v>96249705883</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Mary Walton</t>
+          <t>Rosa Alvarez</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SKU_61</t>
+          <t>SKU_18</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>12.9701997</v>
+        <v>12.9600892</v>
       </c>
       <c r="H149" t="n">
-        <v>77.6391119</v>
+        <v>77.63571109999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>598, 1st Floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
+          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>96249705883</v>
+        <v>80856836359</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rosa Alvarez</t>
+          <t>Beverly Coleman</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SKU_18</t>
+          <t>SKU_86</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>12.9546798</v>
+        <v>13.0017902</v>
       </c>
       <c r="H150" t="n">
-        <v>77.6385275</v>
+        <v>77.7231486</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
+          <t>39, Aiyaapanagar Main Road, Near Krishna Community Hall, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>80856836359</v>
+        <v>63269771781</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Beverly Coleman</t>
+          <t>Deanna Castille</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SKU_86</t>
+          <t>SKU_43</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>13.0043944</v>
+        <v>13.0031532</v>
       </c>
       <c r="H151" t="n">
-        <v>77.68837495</v>
+        <v>77.71262419999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>39, Aiyaapanagar Main Road, Near Krishna Community Hall, KR Puram, Bangalore</t>
+          <t>92, Kodigehalli Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>63269771781</v>
+        <v>81129879069</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Deanna Castille</t>
+          <t>Virginia Hernandez</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>SKU_43</t>
+          <t>SKU_104</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>13.0031532</v>
+        <v>13.004608</v>
       </c>
       <c r="H152" t="n">
-        <v>77.71262419999999</v>
+        <v>77.7140429</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>92, Kodigehalli Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
+          <t>Devasandra Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>81129879069</v>
+        <v>28529174781</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Virginia Hernandez</t>
+          <t>Bryan Warthen</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SKU_104</t>
+          <t>SKU_12</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>13.004608</v>
+        <v>13.0043122</v>
       </c>
       <c r="H153" t="n">
-        <v>77.7140429</v>
+        <v>77.7103151</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Devasandra Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
+          <t>92, Ground Floor, Muninanjappa Gardens, Kodigehalli Main Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>28529174781</v>
+        <v>62724763094</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Bryan Warthen</t>
+          <t>Jacob Mccroy</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SKU_12</t>
+          <t>SKU_67</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>13.0043122</v>
+        <v>13.003555</v>
       </c>
       <c r="H154" t="n">
-        <v>77.71031510000002</v>
+        <v>77.7245487</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>92, Ground Floor, Muninanjappa Gardens, Kodigehalli Main Road, KR Puram, Bangalore</t>
+          <t>Coconut Garden Layout, Kodigehalli Main Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>62724763094</v>
+        <v>62644046092</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Jacob Mccroy</t>
+          <t>Sherry Cole</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SKU_67</t>
+          <t>SKU_69</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>13.0053037</v>
+        <v>13.0034826</v>
       </c>
       <c r="H155" t="n">
-        <v>77.7205317</v>
+        <v>77.7175524</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Coconut Garden Layout, Kodigehalli Main Road, KR Puram, Bangalore</t>
+          <t>21/28, Radhakrishna Nilaya, Opp SEA Institutions, Ayappa Nagar, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>62644046092</v>
+        <v>17432534499</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sherry Cole</t>
+          <t>Verna White</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SKU_69</t>
+          <t>SKU_132</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>13.0034826</v>
+        <v>12.9998189</v>
       </c>
       <c r="H156" t="n">
-        <v>77.7175524</v>
+        <v>77.7151616</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>21/28, Radhakrishna Nilaya, Opp SEA Institutions, Ayappa Nagar, KR Puram, Bangalore</t>
+          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>17432534499</v>
+        <v>84273793675</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Verna White</t>
+          <t>James Horne</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SKU_132</t>
+          <t>SKU_150</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>13.000251</v>
+        <v>13.0017902</v>
       </c>
       <c r="H157" t="n">
-        <v>77.6921979</v>
+        <v>77.7231486</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
+          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>84273793675</v>
+        <v>60381594139</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>James Horne</t>
+          <t>Marlon Leonard</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SKU_150</t>
+          <t>SKU_91</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>13.0043944</v>
+        <v>13.0044944</v>
       </c>
       <c r="H158" t="n">
-        <v>77.68837495</v>
+        <v>77.71258709999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
+          <t>76, Shruthi Layout, Basavanapura Main Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>60381594139</v>
+        <v>61354798733</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Marlon Leonard</t>
+          <t>Matthew Bass</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SKU_91</t>
+          <t>SKU_97</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>13.0044944</v>
+        <v>13.0103509</v>
       </c>
       <c r="H159" t="n">
-        <v>77.71258709999999</v>
+        <v>77.7034883</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>76, Shruthi Layout, Basavanapura Main Road, KR Puram, Bangalore</t>
+          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>61354798733</v>
+        <v>60559333974</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Matthew Bass</t>
+          <t>Romelia Phillips</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SKU_97</t>
+          <t>SKU_12</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>12.99136615</v>
+        <v>13.0044944</v>
       </c>
       <c r="H160" t="n">
-        <v>77.71342894999999</v>
+        <v>77.71258709999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
+          <t>Shop 2, Kodigahalli Main Road, KR Puram</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>60559333974</v>
+        <v>89948676925</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Romelia Phillips</t>
+          <t>James Carlen</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SKU_12</t>
+          <t>SKU_73</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>13.0044944</v>
+        <v>13.0077274</v>
       </c>
       <c r="H161" t="n">
-        <v>77.71258709999999</v>
+        <v>77.7342053</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Shop 2, Kodigahalli Main Road, KR Puram</t>
+          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>89948676925</v>
+        <v>44140764186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>James Carlen</t>
+          <t>Abraham Rehkop</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SKU_73</t>
+          <t>SKU_142</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>13.0077274</v>
+        <v>13.0017902</v>
       </c>
       <c r="H162" t="n">
-        <v>77.7342053</v>
+        <v>77.7231486</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
+          <t>44, Kodigehalli to Hoodi Main Road, Mahadevapura Post, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>44140764186</v>
+        <v>34795550625</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Abraham Rehkop</t>
+          <t>Diana Gerry</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SKU_142</t>
+          <t>SKU_136</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>13.0043944</v>
+        <v>12.9860236</v>
       </c>
       <c r="H163" t="n">
-        <v>77.68837495</v>
+        <v>77.7084196</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>44, Kodigehalli to Hoodi Main Road, Mahadevapura Post, KR Puram, Bangalore</t>
+          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>34795550625</v>
+        <v>81037487822</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Diana Gerry</t>
+          <t>Carl Luskey</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SKU_136</t>
+          <t>SKU_143</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>13.02474365</v>
+        <v>13.0044944</v>
       </c>
       <c r="H164" t="n">
-        <v>77.6541051</v>
+        <v>77.71258709999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
+          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>81037487822</v>
+        <v>47626343441</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Carl Luskey</t>
+          <t>Virginia Hartzler</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SKU_143</t>
+          <t>SKU_36</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6042,117 +6042,117 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>13.0044944</v>
+        <v>13.0017902</v>
       </c>
       <c r="H165" t="n">
-        <v>77.71258709999999</v>
+        <v>77.7231486</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
+          <t>Shop 2, Kodigahalli Main Road, KR Puram</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>47626343441</v>
+        <v>84014569034</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Virginia Hartzler</t>
+          <t>Peggy Heisler</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SKU_36</t>
+          <t>SKU_116</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>13.0043944</v>
+        <v>13.0077274</v>
       </c>
       <c r="H166" t="n">
-        <v>77.68837495</v>
+        <v>77.7342053</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Shop 2, Kodigahalli Main Road, KR Puram</t>
+          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>84014569034</v>
+        <v>15145909184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Peggy Heisler</t>
+          <t>Tiffany Coker</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SKU_116</t>
+          <t>SKU_70</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>13.0077274</v>
+        <v>13.0044944</v>
       </c>
       <c r="H167" t="n">
-        <v>77.7342053</v>
+        <v>77.71258709999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
+          <t>Near Bank Of India ATM, Ramka Colony, Bilekahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>15145909184</v>
+        <v>35496906287</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Tiffany Coker</t>
+          <t>Jessica Blakely</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SKU_70</t>
+          <t>SKU_41</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>13.0044944</v>
+        <v>12.9019819</v>
       </c>
       <c r="H168" t="n">
-        <v>77.71258709999999</v>
+        <v>77.6042056</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6160,322 +6160,322 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>35496906287</v>
+        <v>47772983315</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Jessica Blakely</t>
+          <t>Larry Solomon</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SKU_41</t>
+          <t>SKU_24</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>12.9032109</v>
+        <v>12.9019819</v>
       </c>
       <c r="H169" t="n">
-        <v>77.60277809999999</v>
+        <v>77.6042056</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Near Bank Of India ATM, Ramka Colony, Bilekahalli, Marathahalli, Bangalore</t>
+          <t>595, Ground Floor, Kundalahalli, Varthur Hobli Mahadevpura, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>47772983315</v>
+        <v>25842170396</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Larry Solomon</t>
+          <t>Jon Villanueva</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SKU_24</t>
+          <t>SKU_79</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>12.9032109</v>
+        <v>12.955812</v>
       </c>
       <c r="H170" t="n">
-        <v>77.60277809999999</v>
+        <v>77.713686</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>595, Ground Floor, Kundalahalli, Varthur Hobli Mahadevpura, Marathahalli, Bangalore</t>
+          <t>20/7, Swamy Legato, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>25842170396</v>
+        <v>60147650973</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Jon Villanueva</t>
+          <t>Richard Wheeless</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SKU_79</t>
+          <t>SKU_68</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>12.9560586</v>
+        <v>12.9389269</v>
       </c>
       <c r="H171" t="n">
-        <v>77.693026</v>
+        <v>77.6946805</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>20/7, Swamy Legato, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>20\5, Panathur Junction, Outer Ring Road, Kadubeessanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>60147650973</v>
+        <v>84961010116</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Richard Wheeless</t>
+          <t>John Kessler</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SKU_68</t>
+          <t>SKU_8</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>12.9393876</v>
+        <v>12.9399931</v>
       </c>
       <c r="H172" t="n">
-        <v>77.6947378</v>
+        <v>77.6962218</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>20\5, Panathur Junction, Outer Ring Road, Kadubeessanahalli, Marathahalli, Bangalore</t>
+          <t>20/5, 1st Floor, Panathur Junction, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>84961010116</v>
+        <v>19783328541</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>John Kessler</t>
+          <t>Anthony Torres</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SKU_8</t>
+          <t>SKU_67</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>12.93869875</v>
+        <v>12.9399931</v>
       </c>
       <c r="H173" t="n">
-        <v>77.69511069999999</v>
+        <v>77.6962218</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>20/5, 1st Floor, Panathur Junction, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Ibis Bengaluru, Opposite RMZ Ecospace Business Park, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>19783328541</v>
+        <v>22195593543</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Anthony Torres</t>
+          <t>Robert Michaud</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SKU_67</t>
+          <t>SKU_33</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>12.93451285</v>
+        <v>12.929739</v>
       </c>
       <c r="H174" t="n">
-        <v>77.6908004</v>
+        <v>77.68310199999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ibis Bengaluru, Opposite RMZ Ecospace Business Park, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>10/3, Devarabeesanahali, Outer Ring Road, Opposite Embassy Tech Park, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>22195593543</v>
+        <v>86439214657</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Robert Michaud</t>
+          <t>Lola Lomago</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SKU_33</t>
+          <t>SKU_66</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>12.9298152</v>
+        <v>12.9267407</v>
       </c>
       <c r="H175" t="n">
-        <v>77.68328629999999</v>
+        <v>77.6895485</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>10/3, Devarabeesanahali, Outer Ring Road, Opposite Embassy Tech Park, Marathahalli, Bangalore</t>
+          <t>Shop 37, 3rd Cross, Outer Ring Road, Kadubisnahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>86439214657</v>
+        <v>48712626536</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Lola Lomago</t>
+          <t>Gary Nelson</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SKU_66</t>
+          <t>SKU_7</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>12.98894285</v>
+        <v>12.9063438</v>
       </c>
       <c r="H176" t="n">
-        <v>77.65813505000001</v>
+        <v>77.5711549</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Shop 37, 3rd Cross, Outer Ring Road, Kadubisnahalli, Marathahalli, Bangalore</t>
+          <t>2nd Floor, All Season Super Market Building, Panathur Road, Kadubeesanahalli, Panathur, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>48712626536</v>
+        <v>79263517463</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Gary Nelson</t>
+          <t>Willie Kirkwood</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SKU_7</t>
+          <t>SKU_127</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>12.9492105</v>
+        <v>12.9371973</v>
       </c>
       <c r="H177" t="n">
-        <v>77.7006796</v>
+        <v>77.70246539999999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2nd Floor, All Season Super Market Building, Panathur Road, Kadubeesanahalli, Panathur, Marathahalli, Bangalore</t>
+          <t>89/1, Tulasi Theater Road, Near SBR Palace, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>79263517463</v>
+        <v>98486281871</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Willie Kirkwood</t>
+          <t>Terry Sanabria</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SKU_127</t>
+          <t>SKU_150</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6484,576 +6484,576 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>12.9371973</v>
+        <v>12.9499232</v>
       </c>
       <c r="H178" t="n">
-        <v>77.70246539999999</v>
+        <v>77.6976686</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>89/1, Tulasi Theater Road, Near SBR Palace, Marathahalli, Bangalore</t>
+          <t>20/5, Narayanswamy Building, Kadubeesanahalli Bridge, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>98486281871</v>
+        <v>48552195740</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Terry Sanabria</t>
+          <t>Barbara Capehart</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SKU_150</t>
+          <t>SKU_42</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>12.9489645</v>
+        <v>12.9394098</v>
       </c>
       <c r="H179" t="n">
-        <v>77.6970553</v>
+        <v>77.69515729999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>20/5, Narayanswamy Building, Kadubeesanahalli Bridge, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>90/4, Above Sony Centre, Opposite Park Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>48552195740</v>
+        <v>51656603551</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Barbara Capehart</t>
+          <t>Patrick Gilliam</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SKU_42</t>
+          <t>SKU_55</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>12.9413014</v>
+        <v>12.9502139</v>
       </c>
       <c r="H180" t="n">
-        <v>77.63891215</v>
+        <v>77.69893209999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>90/4, Above Sony Centre, Opposite Park Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Kadubeesanahalli, Near Aricent Technologies, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>51656603551</v>
+        <v>19455702296</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Patrick Gilliam</t>
+          <t>John Granderson</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SKU_55</t>
+          <t>SKU_140</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>12.9502139</v>
+        <v>12.9394137</v>
       </c>
       <c r="H181" t="n">
-        <v>77.69893209999999</v>
+        <v>77.6952031</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Kadubeesanahalli, Near Aricent Technologies, Marathahalli, Bangalore</t>
+          <t>94/2, Panathur Railway Station Road, Opp to JP Morgan (Outer Ring Road), Munnireddy Layout, Panathur, Bangalore</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>19455702296</v>
+        <v>98312518779</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>John Granderson</t>
+          <t>Patricia Haislip</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SKU_140</t>
+          <t>SKU_120</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>12.94870905</v>
+        <v>12.9409139</v>
       </c>
       <c r="H182" t="n">
-        <v>77.62693209999999</v>
+        <v>77.696234</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>94/2, Panathur Railway Station Road, Opp to JP Morgan (Outer Ring Road), Munnireddy Layout, Panathur, Bangalore</t>
+          <t>89/1, Service Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>98312518779</v>
+        <v>55026656606</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Patricia Haislip</t>
+          <t>Carolyn Buchan</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SKU_120</t>
+          <t>SKU_139</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>12.9414859</v>
+        <v>12.9503914</v>
       </c>
       <c r="H183" t="n">
-        <v>77.70118705000002</v>
+        <v>77.69867599999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>89/1, Service Road, Marathahalli, Bangalore</t>
+          <t>88, KBR Complex, More Mega Store, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>55026656606</v>
+        <v>73406214406</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Carolyn Buchan</t>
+          <t>Jane Jones</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SKU_139</t>
+          <t>SKU_148</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>12.9503914</v>
+        <v>12.9644555</v>
       </c>
       <c r="H184" t="n">
-        <v>77.69867599999999</v>
+        <v>77.58376749999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>88, KBR Complex, More Mega Store, Marathahalli, Bangalore</t>
+          <t>Panathur Main Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>73406214406</v>
+        <v>47015403024</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Jane Jones</t>
+          <t>Anita Valdez</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SKU_148</t>
+          <t>SKU_112</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>12.9349624</v>
+        <v>12.9371558</v>
       </c>
       <c r="H185" t="n">
-        <v>77.63299555</v>
+        <v>77.7023374</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Panathur Main Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>127, Kadubisannhalli, Panathur Main Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>47015403024</v>
+        <v>45180804640</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Anita Valdez</t>
+          <t>Carrie Lumpkin</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SKU_112</t>
+          <t>SKU_77</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>12.9371558</v>
+        <v>12.9324386</v>
       </c>
       <c r="H186" t="n">
-        <v>77.70233739999999</v>
+        <v>77.7081077</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>127, Kadubisannhalli, Panathur Main Road, Marathahalli, Bangalore</t>
+          <t>Ground Floor, Vims Hospital Buidling, Opposite to More, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>45180804640</v>
+        <v>31203804545</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Carrie Lumpkin</t>
+          <t>Katie Kochevar</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SKU_77</t>
+          <t>SKU_61</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>12.94403465</v>
+        <v>12.9483018</v>
       </c>
       <c r="H187" t="n">
-        <v>77.70042815000001</v>
+        <v>77.69946519999999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ground Floor, Vims Hospital Buidling, Opposite to More, Marathahalli, Bangalore</t>
+          <t>77 Town Center, Yemalur Road, Marathahalli Village, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>31203804545</v>
+        <v>66199582549</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Katie Kochevar</t>
+          <t>Rose Lau</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SKU_61</t>
+          <t>SKU_79</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>12.9483018</v>
+        <v>12.9486582</v>
       </c>
       <c r="H188" t="n">
-        <v>77.69946519999999</v>
+        <v>77.6899712</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>77 Town Center, Yemalur Road, Marathahalli Village, Marathahalli, Bangalore</t>
+          <t>Near Madurai Idly, SGR Dental College Road, CKB Layout, Chandra Layout, Marathahalli, Bengalore</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>66199582549</v>
+        <v>16213830807</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Rose Lau</t>
+          <t>Adam Shelquist</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SKU_79</t>
+          <t>SKU_127</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>12.9486582</v>
+        <v>12.9499411</v>
       </c>
       <c r="H189" t="n">
-        <v>77.6899712</v>
+        <v>77.70067330000001</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Near Madurai Idly, SGR Dental College Road, CKB Layout, Chandra Layout, Marathahalli, Bengalore</t>
+          <t>Ground Floor, More Megastore, Service Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>16213830807</v>
+        <v>13002857017</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Adam Shelquist</t>
+          <t>Ivan Kinley</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SKU_127</t>
+          <t>SKU_62</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>12.9578141</v>
+        <v>12.9482807</v>
       </c>
       <c r="H190" t="n">
-        <v>77.6708488</v>
+        <v>77.6983956</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ground Floor, More Megastore, Service Road, Marathahalli, Bangalore</t>
+          <t>88, Outer Ring Road, Next To More Mega Store, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>13002857017</v>
+        <v>15691083877</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Ivan Kinley</t>
+          <t>Kevin Schneider</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SKU_62</t>
+          <t>SKU_97</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>12.953321</v>
+        <v>12.9486437</v>
       </c>
       <c r="H191" t="n">
-        <v>77.6428858</v>
+        <v>77.6996774</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>88, Outer Ring Road, Next To More Mega Store, Marathahalli, Bangalore</t>
+          <t>88, 1st Floor, VIMS Hospital Building, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>15691083877</v>
+        <v>62758300340</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Kevin Schneider</t>
+          <t>Mary Duffy</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SKU_97</t>
+          <t>SKU_90</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>12.9349624</v>
+        <v>12.9483018</v>
       </c>
       <c r="H192" t="n">
-        <v>77.63336939999999</v>
+        <v>77.69946519999999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>88, 1st Floor, VIMS Hospital Building, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Ikon Building, Next to Sony Centre, Outer Ring Road, Marathahalli</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>62758300340</v>
+        <v>54016008457</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Mary Duffy</t>
+          <t>James Allen</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SKU_90</t>
+          <t>SKU_102</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>12.945756</v>
+        <v>13.0274976</v>
       </c>
       <c r="H193" t="n">
-        <v>77.69252274999998</v>
+        <v>77.63458159999999</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ikon Building, Next to Sony Centre, Outer Ring Road, Marathahalli</t>
+          <t>3, Srinivasa Nilayam, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>54016008457</v>
+        <v>43727711975</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>James Allen</t>
+          <t>Ricky Aschenbrenner</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SKU_102</t>
+          <t>SKU_68</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>12.9538697</v>
+        <v>12.9348385</v>
       </c>
       <c r="H194" t="n">
-        <v>77.69257330000001</v>
+        <v>77.7011844</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>3, Srinivasa Nilayam, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
+          <t>First Floor, Raja Ikon, Opposite Hotel Radisson Blu, Near Marathahali Bridge, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>43727711975</v>
+        <v>24526739732</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Ricky Aschenbrenner</t>
+          <t>Marie Harris</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SKU_68</t>
+          <t>SKU_129</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7062,134 +7062,134 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>12.93450175</v>
+        <v>12.9493355</v>
       </c>
       <c r="H195" t="n">
-        <v>77.7053026</v>
+        <v>77.69980409999999</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>First Floor, Raja Ikon, Opposite Hotel Radisson Blu, Near Marathahali Bridge, Marathahalli, Bangalore</t>
+          <t>Shop 217, 2nd main road, Kadubeesanahalli Croma, Back Side road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>24526739732</v>
+        <v>72580152196</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Marie Harris</t>
+          <t>Patrick Payne</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SKU_129</t>
+          <t>SKU_90</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>12.9502139</v>
+        <v>12.973296</v>
       </c>
       <c r="H196" t="n">
-        <v>77.69893209999999</v>
+        <v>77.6957888</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Shop 217, 2nd main road, Kadubeesanahalli Croma, Back Side road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+          <t>88, 3rd Floor, KBR Mall, Above More Mega Store, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>72580152196</v>
+        <v>34889886477</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Patrick Payne</t>
+          <t>Emma Saulsberry</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SKU_90</t>
+          <t>SKU_113</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>12.9582041</v>
+        <v>12.9577656</v>
       </c>
       <c r="H197" t="n">
-        <v>77.69683295</v>
+        <v>77.70117089999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>88, 3rd Floor, KBR Mall, Above More Mega Store, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Near Madurai Idly, SGR Dental College Road, CKB Layout, Chandra Layout, Marathahalli, Bengalore</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>34889886477</v>
+        <v>65188908427</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Emma Saulsberry</t>
+          <t>Mary Paongo</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SKU_113</t>
+          <t>SKU_48</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>12.9480643</v>
+        <v>12.9499411</v>
       </c>
       <c r="H198" t="n">
-        <v>77.6987082</v>
+        <v>77.70067330000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Near Madurai Idly, SGR Dental College Road, CKB Layout, Chandra Layout, Marathahalli, Bengalore</t>
+          <t>1st Floor, NTR Royal Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>65188908427</v>
+        <v>18924249557</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Mary Paongo</t>
+          <t>Charles Albrecht</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SKU_48</t>
+          <t>SKU_10</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7198,338 +7198,338 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>12.9578141</v>
+        <v>12.949365</v>
       </c>
       <c r="H199" t="n">
-        <v>77.6708488</v>
+        <v>77.6990172</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1st Floor, NTR Royal Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>20/5, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>18924249557</v>
+        <v>49862610786</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Charles Albrecht</t>
+          <t>Naomi Daniels</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SKU_10</t>
+          <t>SKU_89</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>12.9479802</v>
+        <v>12.9387303</v>
       </c>
       <c r="H200" t="n">
-        <v>77.6954774</v>
+        <v>77.6951242</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>20/5, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>Kadubeesanahalli, Marathahalli Outer Ring Road, Opposite JP Morgan, Varthur Hobli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>49862610786</v>
+        <v>56516948976</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Naomi Daniels</t>
+          <t>Robert Clarke</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SKU_89</t>
+          <t>SKU_63</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>12.9387303</v>
+        <v>12.9641908</v>
       </c>
       <c r="H201" t="n">
-        <v>77.6951242</v>
+        <v>77.7019459</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Kadubeesanahalli, Marathahalli Outer Ring Road, Opposite JP Morgan, Varthur Hobli, Marathahalli, Bangalore</t>
+          <t>Yemalur, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>56516948976</v>
+        <v>12358732625</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Robert Clarke</t>
+          <t>Annie Farrior</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SKU_63</t>
+          <t>SKU_139</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>12.9428771</v>
+        <v>12.9446164</v>
       </c>
       <c r="H202" t="n">
-        <v>77.6966127</v>
+        <v>77.6836756</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Yemalur, Marathahalli, Bangalore</t>
+          <t>20\5, Panathur Junction, Outer Ring Road, Kadubeessanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>12358732625</v>
+        <v>22660986194</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Annie Farrior</t>
+          <t>Delores Dupont</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SKU_139</t>
+          <t>SKU_149</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>12.9449125</v>
+        <v>12.9399931</v>
       </c>
       <c r="H203" t="n">
-        <v>77.68451895000001</v>
+        <v>77.6962218</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>20\5, Panathur Junction, Outer Ring Road, Kadubeessanahalli, Marathahalli, Bangalore</t>
+          <t>Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>22660986194</v>
+        <v>25907907008</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Delores Dupont</t>
+          <t>Frank Lester</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SKU_149</t>
+          <t>SKU_103</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>12.93869875</v>
+        <v>12.9428771</v>
       </c>
       <c r="H204" t="n">
-        <v>77.69511069999999</v>
+        <v>77.6966127</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
+          <t>Shop 7, 8 Opposite, Airtel Express, Panathur Main Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>25907907008</v>
+        <v>61450912280</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Frank Lester</t>
+          <t>Tommy Mason</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SKU_103</t>
+          <t>SKU_129</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>12.9336203</v>
+        <v>12.9324386</v>
       </c>
       <c r="H205" t="n">
-        <v>77.67122004999999</v>
+        <v>77.7081077</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Shop 7, 8 Opposite, Airtel Express, Panathur Main Road, Marathahalli, Bangalore</t>
+          <t>Srinivasa Nilayam, Site 3, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>61450912280</v>
+        <v>60841023934</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tommy Mason</t>
+          <t>Bobbie Scarborough</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SKU_129</t>
+          <t>SKU_3</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>12.96842755</v>
+        <v>12.9351663</v>
       </c>
       <c r="H206" t="n">
-        <v>77.70200059999999</v>
+        <v>77.7008211</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Srinivasa Nilayam, Site 3, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
+          <t>Salarpuria Sattva Aura, Kiosk 6, Foodworks Food Court, Block 11, Marathahalli - Sarjapur Outer Ring Road, Kaverappa Layout, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>60841023934</v>
+        <v>35828962763</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Bobbie Scarborough</t>
+          <t>Jesse Vaness</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SKU_3</t>
+          <t>SKU_25</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>12.9351663</v>
+        <v>12.935653</v>
       </c>
       <c r="H207" t="n">
-        <v>77.7008211</v>
+        <v>77.695588</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Salarpuria Sattva Aura, Kiosk 6, Foodworks Food Court, Block 11, Marathahalli - Sarjapur Outer Ring Road, Kaverappa Layout, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>23/4, Kariyammana Agrahara Road Kadubisinahalli, Prestige Tech Park Back Gate, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>35828962763</v>
+        <v>87093968225</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Jesse Vaness</t>
+          <t>Russell Diamond</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SKU_25</t>
+          <t>SKU_69</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>12.9364462</v>
+        <v>12.948889</v>
       </c>
       <c r="H208" t="n">
-        <v>77.69328599999999</v>
+        <v>77.686014</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>23/4, Kariyammana Agrahara Road Kadubisinahalli, Prestige Tech Park Back Gate, Marathahalli, Bangalore</t>
+          <t>Plot 302, Shop 1, 2nd Cross, Kadubesanahalli, Panathur Main Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>87093968225</v>
+        <v>71791751983</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Russell Diamond</t>
+          <t>Dorothy Davis</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SKU_69</t>
+          <t>SKU_44</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7538,32 +7538,32 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>12.9395573</v>
+        <v>12.9399329</v>
       </c>
       <c r="H209" t="n">
-        <v>77.6898247</v>
+        <v>77.6979661</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Plot 302, Shop 1, 2nd Cross, Kadubesanahalli, Panathur Main Road, Marathahalli, Bangalore</t>
+          <t>6,Opposite Prestige Tech Park, Kadubeesanhalli Bus Stop, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>71791751983</v>
+        <v>75026092650</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Dorothy Davis</t>
+          <t>Herman Boulds</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SKU_44</t>
+          <t>SKU_100</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7572,247 +7572,213 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>12.9399348</v>
+        <v>12.9432425</v>
       </c>
       <c r="H210" t="n">
-        <v>77.6979518</v>
+        <v>77.69190569999999</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>6,Opposite Prestige Tech Park, Kadubeesanhalli Bus Stop, Marathahalli, Bangalore</t>
+          <t>18, Prakruthi Enclave, Panathur Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>75026092650</v>
+        <v>41891691354</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Herman Boulds</t>
+          <t>Catherine Wilson</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SKU_100</t>
+          <t>SKU_78</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>12.9396012</v>
+        <v>12.9367813</v>
       </c>
       <c r="H211" t="n">
-        <v>77.6890901</v>
+        <v>77.71045889999999</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>18, Prakruthi Enclave, Panathur Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>Shop 217, 2nd Main Road Kadubeesanahalli Croma Back Side Road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>41891691354</v>
+        <v>49695767650</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Catherine Wilson</t>
+          <t>Mary Compton</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SKU_78</t>
+          <t>SKU_53</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>11-02-2023</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>12.961431</v>
+        <v>12.973296</v>
       </c>
       <c r="H212" t="n">
-        <v>77.6885372</v>
+        <v>77.6957888</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Shop 217, 2nd Main Road Kadubeesanahalli Croma Back Side Road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+          <t>77 Town, Building No 3, Divya Shree Building, Yamalur Post, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>49695767650</v>
+        <v>62165843566</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Mary Compton</t>
+          <t>Aaron Davis</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SKU_53</t>
+          <t>SKU_5</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>11-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>12.9404534</v>
+        <v>12.9257475</v>
       </c>
       <c r="H213" t="n">
-        <v>77.69771709999999</v>
+        <v>77.6143829</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>77 Town, Building No 3, Divya Shree Building, Yamalur Post, Marathahalli, Bangalore</t>
+          <t>Near kaka singh dhaba, RMZ eco world backgate</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>62165843566</v>
+        <v>70987447117</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Aaron Davis</t>
+          <t>Holly Sallee</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SKU_5</t>
+          <t>SKU_104</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>8-02-2023</t>
+          <t>10-02-2023</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>12.95633619967463</v>
+        <v>12.918756</v>
       </c>
       <c r="H214" t="n">
-        <v>77.63248419999998</v>
+        <v>77.6851939</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Near kaka singh dhaba, RMZ eco world backgate</t>
+          <t>41, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>70987447117</v>
+        <v>17162566322</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Holly Sallee</t>
+          <t>Tracy Vanhoy</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SKU_104</t>
+          <t>SKU_87</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>12.918756</v>
+        <v>12.9394137</v>
       </c>
       <c r="H215" t="n">
-        <v>77.6851939</v>
+        <v>77.6952031</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>41, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>5, KBR Mall Complex, Ground Floor, More Mega Store, Varthur Hobli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>17162566322</v>
+        <v>32184021928</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tracy Vanhoy</t>
+          <t>Harry Heishman</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SKU_87</t>
+          <t>SKU_138</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>8-02-2023</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>12.94715705</v>
+        <v>12.9482807</v>
       </c>
       <c r="H216" t="n">
-        <v>77.69637379999999</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>5, KBR Mall Complex, Ground Floor, More Mega Store, Varthur Hobli, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>32184021928</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Harry Heishman</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>SKU_138</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>8-02-2023</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>12.9482807</v>
-      </c>
-      <c r="H217" t="n">
         <v>77.6983956</v>
       </c>
     </row>
